--- a/BusinessIntelligence/sample_data/Data Bleanding File Two.xlsx
+++ b/BusinessIntelligence/sample_data/Data Bleanding File Two.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -78,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,16 +408,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -447,7 +445,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>(A2+10)</f>
         <v>20</v>
@@ -463,7 +461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <f t="shared" ref="A4:A20" si="0">(A3+10)</f>
         <v>30</v>
@@ -479,7 +477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -492,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -511,7 +509,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -527,7 +525,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -540,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -559,7 +557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -575,7 +573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -588,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -604,10 +602,10 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -623,7 +621,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -639,7 +637,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -655,7 +653,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -671,7 +669,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -684,10 +682,10 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -703,7 +701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -719,7 +717,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -741,24 +739,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
